--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005062</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时中证500指数增强A</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960005</t>
+          <t>373010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合H</t>
+          <t>上投摩根双息平衡混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006255</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006256</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>373010</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根双息平衡混合A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>006255</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>中邮中证价值回报量化策略指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>006256</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>中邮中证价值回报量化策略指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -930,25 +1090,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>960005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -958,25 +1122,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1098,7 +1099,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -1130,7 +1130,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -1146,6 +1145,480 @@
       </c>
       <c r="H14" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1624,4 +1625,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2593,4 +2594,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2602,7 +2603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2613,17 +2614,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2633,14 +2654,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.529999999999999</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2649,14 +2692,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.15</v>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2665,14 +2730,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75</v>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2681,13 +2768,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2849,7 +2850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2860,17 +2861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2880,14 +2901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.83</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2896,14 +2939,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.529999999999999</v>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2912,14 +2977,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.15</v>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2928,14 +3015,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75</v>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2944,13 +3053,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3096,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3107,17 +3108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3127,14 +3148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.61</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3143,14 +3186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.83</v>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3159,14 +3224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.529999999999999</v>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3175,14 +3262,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.15</v>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3191,14 +3300,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.75</v>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3207,13 +3338,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.529999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.94</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.61</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.83</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>9.529999999999999</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.15</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,252 +1101,6 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>040008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安策略优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4433</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004495</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时量化平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>38.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1164</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1186,36 +1165,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>040008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>华安策略优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.03</t>
+          <t>52.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2412</t>
+          <t>2.4433</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1224,36 +1203,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>004495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>博时量化平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>38.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2248</t>
+          <t>0.1164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1262,36 +1241,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1779</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1300,36 +1279,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004495</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时量化平衡混合</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1338,36 +1317,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>64.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0927</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1355,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +2568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2817,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3353,7 +3578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600782-新钢股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.94</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.61</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.83</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>9.529999999999999</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -616,7 +633,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1101,252 +1458,6 @@
       </c>
       <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>040008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安策略优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4433</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004495</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时量化平衡混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>38.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1164</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1411,36 +1522,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>040008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>华安策略优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.03</t>
+          <t>52.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2412</t>
+          <t>2.4433</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1449,36 +1560,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>004495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>博时量化平衡混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>38.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2248</t>
+          <t>0.1164</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1487,36 +1598,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>62.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1779</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1525,36 +1636,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004495</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时量化平衡混合</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1563,36 +1674,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>64.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0927</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1601,6 +1712,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2568,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3042,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3576,174 +3933,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>